--- a/cypress/downloads/order-invoice_afba.qa.xlsx
+++ b/cypress/downloads/order-invoice_afba.qa.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>665e2915ae2afd4c0beff983</v>
+        <v>665e7e34ae2afd4c0bf0254d</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>
